--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1509367.476173099</v>
+        <v>1613547.110624169</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103701</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>256.2422694642174</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>109.030008608455</v>
       </c>
       <c r="W4" t="n">
-        <v>73.88488384266489</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>5.829022425351665</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>362.5726364766792</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -953,7 +955,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>24.61065329719717</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>125.3524311592341</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>2.854028866654996</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>23.79925355567548</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>94.57983363107962</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>145.2400692563859</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1777,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1819,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>18.7084378797726</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>132.6315337216697</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>132.6315337216687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>100.5858322992699</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>87.2147151485303</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>186.9166231085223</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="33">
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>60.64713141731278</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>157.703088815509</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833411</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>105.6507867899542</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,19 +3717,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>151.8518831495024</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3910,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>119.6760079449695</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>78.34975387299224</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4144,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>100.0416311957212</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>172.026033500079</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>2245.732315283596</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1876.769798343184</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,19 +4327,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2635.871647259407</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2245.732315283596</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310.0549803959803</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C4" t="n">
-        <v>310.0549803959803</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025388</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T4" t="n">
-        <v>639.3706644025388</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U4" t="n">
-        <v>639.3706644025388</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V4" t="n">
-        <v>384.6861761966519</v>
+        <v>619.069799818289</v>
       </c>
       <c r="W4" t="n">
-        <v>310.0549803959803</v>
+        <v>619.069799818289</v>
       </c>
       <c r="X4" t="n">
-        <v>310.0549803959803</v>
+        <v>619.069799818289</v>
       </c>
       <c r="Y4" t="n">
-        <v>310.0549803959803</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1569.101759311879</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C5" t="n">
-        <v>1569.101759311879</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="D5" t="n">
-        <v>1569.101759311879</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>1183.313506713635</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>772.3276019240275</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883007</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W5" t="n">
-        <v>2719.306689612893</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.840931351813</v>
+        <v>2014.778044008241</v>
       </c>
       <c r="Y5" t="n">
-        <v>1955.701599376001</v>
+        <v>1624.638712032429</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>700.0944266746548</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="C7" t="n">
-        <v>700.0944266746548</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4765,10 +4767,10 @@
         <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y7" t="n">
-        <v>700.0944266746548</v>
+        <v>472.1048757766374</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1664.678443125553</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1295.715926185142</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>937.4502275783914</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
@@ -4811,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450755</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450755</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189675</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y8" t="n">
-        <v>2051.278283189675</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4880,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>364.5418494269123</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269123</v>
+        <v>920.887005818185</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145766</v>
+        <v>770.7703664058492</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218345</v>
+        <v>622.8572728234561</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>475.9673253255457</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>308.2644887002647</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>162.0473019181225</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>774.1798651551694</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>774.1798651551694</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>774.1798651551694</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>774.1798651551694</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>774.1798651551694</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>546.1903142571521</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>546.1903142571521</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="11">
@@ -5033,46 +5035,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5358,19 +5360,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5467,19 +5469,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="17">
@@ -5507,43 +5509,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5598,22 +5600,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>738.7889117913853</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>3227.225672628157</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>3058.28948970025</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>2908.172850287915</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>2760.259756705521</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>2613.369809207611</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>4401.757925742791</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>4147.073437536905</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>3857.656267499944</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>3629.666716601927</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>3408.874137458397</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5792,7 +5794,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,19 +5831,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098237</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4194208819168</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D22" t="n">
-        <v>664.3027814695811</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E22" t="n">
-        <v>516.389687887188</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F22" t="n">
-        <v>369.4997403892776</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5940,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783593</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640063</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5984,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2897.617548589219</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>2728.681365661313</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D25" t="n">
-        <v>2728.681365661313</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E25" t="n">
-        <v>2728.681365661313</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>3300.058592562989</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>3079.266013419459</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6239,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,16 +6308,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6467,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>738.7889117913853</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6695,13 +6697,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6743,7 +6745,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6782,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3007.624207651098</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C34" t="n">
-        <v>2838.688024723191</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D34" t="n">
-        <v>2688.571385310855</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>2540.658291728462</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>2540.658291728462</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024105</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4471.231687421534</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>4182.156460765732</v>
+        <v>1885.210734949511</v>
       </c>
       <c r="V34" t="n">
-        <v>3927.471972559845</v>
+        <v>1630.526246743624</v>
       </c>
       <c r="W34" t="n">
-        <v>3638.054802522885</v>
+        <v>1341.109076706663</v>
       </c>
       <c r="X34" t="n">
-        <v>3410.065251624867</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y34" t="n">
-        <v>3189.272672481337</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6934,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6962,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400671</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121602</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998245</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998245</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998245</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998245</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782918</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038303</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797714</v>
+        <v>826.1405381797704</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S37" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T37" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713837</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703069</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7165,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,13 +7256,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>1433.701365648819</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7393,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7491,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>296.7882229101285</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1898.319914982233</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1643.635426776346</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,10 +7730,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
         <v>1336.913939313768</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1052.829365488567</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>883.8931825606599</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>733.7765431483241</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>585.863449565931</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U46" t="n">
-        <v>2227.361618603201</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1972.677130397314</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1683.259960360354</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1455.270409462336</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1234.477830318806</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>32.89260457059919</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>99.26785128072183</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>104.8770068749561</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>128.4813855737351</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>40.32043864788977</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>75.37549921169037</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.73277020259238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25798,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>20.61870490125435</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>207.8347205162519</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>45.37941682721004</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>45.37941682720927</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>901889.9708542901</v>
+        <v>901889.9708542902</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542899</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="15">
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="G2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="H2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="G2" t="n">
-        <v>524645.2897985042</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="K2" t="n">
         <v>524645.2897985041</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985041</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
@@ -26350,7 +26352,7 @@
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985036</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
         <v>524645.2897985039</v>
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.359841684869025e-10</v>
+        <v>1.412581696058623e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,10 +26420,10 @@
         <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26445,7 +26447,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-996598.2799812539</v>
+        <v>-996598.2799812543</v>
       </c>
       <c r="C6" t="n">
-        <v>332146.4657463382</v>
+        <v>332146.4657463384</v>
       </c>
       <c r="D6" t="n">
-        <v>332146.4657463383</v>
+        <v>332146.4657463381</v>
       </c>
       <c r="E6" t="n">
-        <v>83283.6021253746</v>
+        <v>83283.60212537402</v>
       </c>
       <c r="F6" t="n">
-        <v>408696.0639327294</v>
+        <v>408696.0639327297</v>
       </c>
       <c r="G6" t="n">
-        <v>408696.0639327297</v>
+        <v>408696.0639327292</v>
       </c>
       <c r="H6" t="n">
         <v>408696.0639327295</v>
       </c>
       <c r="I6" t="n">
-        <v>408696.0639327297</v>
+        <v>408696.0639327295</v>
       </c>
       <c r="J6" t="n">
-        <v>191164.8615354522</v>
+        <v>191164.861535452</v>
       </c>
       <c r="K6" t="n">
-        <v>408696.0639327295</v>
+        <v>408696.0639327296</v>
       </c>
       <c r="L6" t="n">
-        <v>408696.0639327295</v>
+        <v>408696.0639327294</v>
       </c>
       <c r="M6" t="n">
-        <v>323641.0359972178</v>
+        <v>323641.0359972176</v>
       </c>
       <c r="N6" t="n">
         <v>408696.0639327295</v>
       </c>
       <c r="O6" t="n">
+        <v>408696.0639327295</v>
+      </c>
+      <c r="P6" t="n">
         <v>408696.0639327292</v>
-      </c>
-      <c r="P6" t="n">
-        <v>408696.0639327294</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024436</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>98.44077215646553</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27433,13 +27435,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,10 +27554,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>143.107634715373</v>
       </c>
       <c r="W4" t="n">
-        <v>212.6381144939261</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,16 +27621,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>348.8540191953313</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>48.34908917677427</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27673,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>124.0048197210152</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>20.06861686369719</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>379.0763412056068</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>345.9318471227936</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>1.772586778758466</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>44.52895607505602</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29815,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="33">
@@ -29983,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30165,7 +30167,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>-2.478715391494445e-12</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138789</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,34 +32320,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>705.9257335045849</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32551,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32558,13 +32560,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32968,7 +32970,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33026,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N27" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33257,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>705.9257335045849</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,16 +33745,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>368.6279838366855</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33974,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34211,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>409.0029787211719</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34474,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340047</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35726,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>574.5840214212516</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,19 +36676,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N27" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>574.5840214212516</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,16 +37393,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>237.2862717533522</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294939</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191284</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
         <v>426.2724270010451</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,19 +38098,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>266.8689447991536</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1613547.110624169</v>
+        <v>1609534.500610177</v>
       </c>
     </row>
     <row r="7">
@@ -664,19 +664,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>256.2422694642174</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>260.902979037998</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -712,16 +712,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -788,7 +788,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>109.030008608455</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>208.1183413816755</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>5.829022425351665</v>
+        <v>79.76470074482921</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>125.3524311592341</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>81.46084344268529</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>93.52638216881448</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>23.79925355567548</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>94.57983363107962</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089668</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>51.3656974031032</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2010,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>132.6315337216697</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>185.3892167411514</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>100.5858322992699</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>125.8152577453148</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>14.19454216862647</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>68.17501931583776</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>157.703088815509</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H37" t="n">
-        <v>99.97427419833411</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>160.6789846282037</v>
+        <v>113.9549918517058</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>59.96838802184509</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>78.34975387299224</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>172.026033500079</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2245.732315283596</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="C2" t="n">
-        <v>1876.769798343184</v>
+        <v>1145.385526619113</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>787.1198280123626</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>787.1198280123626</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520487</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520487</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X2" t="n">
-        <v>2635.871647259407</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y2" t="n">
-        <v>2245.732315283596</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
         <v>458.9189605332749</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.6287558445191</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6287558445191</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
         <v>66.5121164321834</v>
@@ -4515,25 +4515,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>619.069799818289</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>619.069799818289</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>619.069799818289</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>398.2772206747588</v>
+        <v>710.6664589680076</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1238.038871968308</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C5" t="n">
-        <v>1238.038871968308</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,10 +4564,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539435</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269321</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008241</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.638712032429</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.4564109463977</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>290.4564109463977</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>290.4564109463977</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>290.4564109463977</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4761,16 +4761,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="X7" t="n">
-        <v>692.8974549201675</v>
+        <v>148.7957966773201</v>
       </c>
       <c r="Y7" t="n">
-        <v>472.1048757766374</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3231.134728509358</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3231.134728509358</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2977.604251783195</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>2646.541364439624</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794325</v>
+        <v>2293.77270916951</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>1920.30695090843</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1530.167618932618</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>920.887005818185</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>920.887005818185</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>770.7703664058492</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>622.8572728234561</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>475.9673253255457</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>308.2644887002647</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>162.0473019181225</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4971,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524075</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5269,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098237</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819168</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695811</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>516.389687887188</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783593</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640063</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5515,22 +5515,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3227.225672628157</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>3058.28948970025</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>2908.172850287915</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>2760.259756705521</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>2613.369809207611</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>4401.757925742791</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>4147.073437536905</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>3857.656267499944</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>3629.666716601927</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>3408.874137458397</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5752,19 +5752,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,10 +5788,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925216</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>444.7013164925216</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>444.7013164925216</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>277.5052172074016</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>444.7013164925216</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1963.123159128057</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6214,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6238,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6454,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6730,19 +6730,19 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797186</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1885.210734949511</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1630.526246743624</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1341.109076706663</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1113.119525808646</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7028,16 +7028,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998245</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998245</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998245</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
-        <v>194.8007783998245</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782918</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038303</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797704</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.294644713837</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7438,25 +7438,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.777212765616</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1898.319914982233</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1643.635426776346</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1354.218256739386</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2443.925817935984</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2261.070983590888</v>
       </c>
       <c r="T46" t="n">
-        <v>2273.199413378161</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>114.1584408891656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>32.89260457059919</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>39.70888054695402</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>39.70888054695402</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>271.9899322206177</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>72.11969353038613</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>62.35543909864955</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>128.4813855737351</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H37" t="n">
-        <v>40.32043864788977</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>125.5054897610405</v>
+        <v>172.2294825375383</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>119.8635921600922</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>207.8347205162519</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>63.36835372228757</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>45.37941682720927</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>901889.9708542901</v>
+        <v>901889.9708542902</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>901889.9708542899</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>901889.9708542901</v>
+        <v>901889.9708542902</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117842</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117843</v>
-      </c>
       <c r="D2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="F2" t="n">
         <v>524645.289798504</v>
@@ -26334,13 +26334,13 @@
         <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
@@ -26349,13 +26349,13 @@
         <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="O2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="P2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.412581696058623e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972777</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,10 +26420,10 @@
         <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26447,7 +26447,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
@@ -26456,7 +26456,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-996598.2799812543</v>
+        <v>-996598.2799812541</v>
       </c>
       <c r="C6" t="n">
         <v>332146.4657463384</v>
       </c>
       <c r="D6" t="n">
-        <v>332146.4657463381</v>
+        <v>332146.4657463384</v>
       </c>
       <c r="E6" t="n">
-        <v>83283.60212537402</v>
+        <v>82936.22287101729</v>
       </c>
       <c r="F6" t="n">
-        <v>408696.0639327297</v>
+        <v>408348.6846783725</v>
       </c>
       <c r="G6" t="n">
-        <v>408696.0639327292</v>
+        <v>408348.6846783725</v>
       </c>
       <c r="H6" t="n">
-        <v>408696.0639327295</v>
+        <v>408348.6846783724</v>
       </c>
       <c r="I6" t="n">
-        <v>408696.0639327295</v>
+        <v>408348.6846783724</v>
       </c>
       <c r="J6" t="n">
-        <v>191164.861535452</v>
+        <v>190817.4822810946</v>
       </c>
       <c r="K6" t="n">
-        <v>408696.0639327296</v>
+        <v>408348.6846783723</v>
       </c>
       <c r="L6" t="n">
-        <v>408696.0639327294</v>
+        <v>408348.6846783727</v>
       </c>
       <c r="M6" t="n">
-        <v>323641.0359972176</v>
+        <v>323293.6567428607</v>
       </c>
       <c r="N6" t="n">
-        <v>408696.0639327295</v>
+        <v>408348.6846783724</v>
       </c>
       <c r="O6" t="n">
-        <v>408696.0639327295</v>
+        <v>408348.6846783723</v>
       </c>
       <c r="P6" t="n">
-        <v>408696.0639327292</v>
+        <v>408348.6846783725</v>
       </c>
     </row>
   </sheetData>
@@ -26792,13 +26792,13 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26968,23 +26968,23 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>98.44077215646553</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>145.9730667037135</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27542,16 +27542,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27587,7 +27587,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>143.107634715373</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>10.46631197041933</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>348.8540191953313</v>
+        <v>274.9183408758537</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>20.06861686369719</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,16 +27833,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>137.1238099094095</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>15.66137961936136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>345.9318471227936</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>1.772586778758466</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29817,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30167,7 +30167,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-2.478715391494445e-12</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31606,7 +31606,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>436.4492970000073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>409.0029787211719</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>243.7989988974573</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326294939</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>266.8689447991536</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1609534.500610177</v>
+        <v>1611295.030912962</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>274.2851442767276</v>
       </c>
       <c r="F2" t="n">
-        <v>260.902979037998</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>20.95866062610926</v>
       </c>
       <c r="Y4" t="n">
-        <v>208.1183413816755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>79.76470074482921</v>
+        <v>79.76470074482877</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2.118847112890143</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>81.46084344268529</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>335.8756750054773</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>93.52638216881448</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.08802744677259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>131.552212841269</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.32649042089668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>25.52471385612641</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>19.91555826189101</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>94.91529601901487</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>185.3892167411514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>101.6969570046971</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>14.19454216862647</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>126.926382450742</v>
       </c>
       <c r="H28" t="n">
-        <v>1.79977260571659</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>103.1686991936193</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>179.0375859154204</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>113.9549918517058</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>59.96838802184509</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>3.006892987834117</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>100.5858322992705</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1514.348043559525</v>
+        <v>1878.169188758594</v>
       </c>
       <c r="C2" t="n">
-        <v>1145.385526619113</v>
+        <v>1509.206671818182</v>
       </c>
       <c r="D2" t="n">
-        <v>787.1198280123626</v>
+        <v>1509.206671818182</v>
       </c>
       <c r="E2" t="n">
-        <v>787.1198280123626</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4348,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796416</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535336</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559525</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
         <v>458.9189605332749</v>
@@ -4400,22 +4400,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y4" t="n">
-        <v>710.6664589680076</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C5" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4567,7 +4567,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,7 +4576,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4603,16 +4603,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
         <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>700.0944266746548</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>531.1582437467479</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>531.1582437467479</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>383.2451501643548</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>236.3552026664444</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>68.65236604116336</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4761,16 +4761,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>666.202517612298</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>376.7853475753374</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>148.7957966773201</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218342</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1530.167618932618</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.167618932618</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1546.221676928586</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>1160.433424330342</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4807,13 +4807,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3231.134728509358</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3231.134728509358</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2977.604251783195</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2646.541364439624</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2293.77270916951</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>1920.30695090843</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>1530.167618932618</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="9">
@@ -4886,10 +4886,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -5004,10 +5004,10 @@
         <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>251.562654109227</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249857</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>266.4891497944948</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>119.5992022965844</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>119.5992022965844</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>119.5992022965844</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="14">
@@ -5272,13 +5272,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5296,16 +5296,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5503,46 +5503,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>554.5813165460164</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>385.6451336181095</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>235.5284942057738</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X19" t="n">
-        <v>957.0223605197863</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y19" t="n">
-        <v>736.2297813762561</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,22 +5746,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5770,22 +5770,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277355</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1963.123159128057</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6208,10 +6208,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,13 +6220,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6238,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,7 +6712,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,13 +6721,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F34" t="n">
-        <v>198.027470314254</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998286</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2083.262202855953</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1794.18697620015</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1539.502487994263</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7438,10 +7438,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>634.9279362553159</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>577.8620388433919</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C46" t="n">
-        <v>408.925855915485</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2443.925817935984</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2261.070983590888</v>
+        <v>2345.361232772917</v>
       </c>
       <c r="T46" t="n">
-        <v>2041.469518613829</v>
+        <v>2125.759767795858</v>
       </c>
       <c r="U46" t="n">
-        <v>1752.394291958027</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V46" t="n">
-        <v>1497.70980375214</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W46" t="n">
-        <v>1208.292633715179</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X46" t="n">
-        <v>980.3030828171618</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y46" t="n">
-        <v>759.5105036736317</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
   </sheetData>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>55.74112246243911</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>191.2691783702293</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>44.73700564187209</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>271.9899322206177</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>139.4693302300325</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>62.35543909864955</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>38.36786441186783</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>172.2294825375383</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>119.8635921600922</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>63.36835372228757</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>80.44045370237413</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>901889.9708542901</v>
+        <v>901889.9708542902</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>901889.9708542901</v>
+        <v>901889.9708542902</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>901889.9708542901</v>
+        <v>901889.9708542902</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542901</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>901889.9708542901</v>
+        <v>901889.9708542902</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117842</v>
@@ -26322,40 +26322,40 @@
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="H2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="I2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="J2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="L2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972777</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26447,7 +26447,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
@@ -26456,7 +26456,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-996598.2799812541</v>
+        <v>-996598.279981254</v>
       </c>
       <c r="C6" t="n">
-        <v>332146.4657463384</v>
+        <v>332146.4657463381</v>
       </c>
       <c r="D6" t="n">
         <v>332146.4657463384</v>
       </c>
       <c r="E6" t="n">
-        <v>82936.22287101729</v>
+        <v>83248.86419993838</v>
       </c>
       <c r="F6" t="n">
-        <v>408348.6846783725</v>
+        <v>408661.3260072938</v>
       </c>
       <c r="G6" t="n">
-        <v>408348.6846783725</v>
+        <v>408661.3260072937</v>
       </c>
       <c r="H6" t="n">
-        <v>408348.6846783724</v>
+        <v>408661.3260072935</v>
       </c>
       <c r="I6" t="n">
-        <v>408348.6846783724</v>
+        <v>408661.3260072935</v>
       </c>
       <c r="J6" t="n">
-        <v>190817.4822810946</v>
+        <v>191130.1236100165</v>
       </c>
       <c r="K6" t="n">
-        <v>408348.6846783723</v>
+        <v>408661.3260072938</v>
       </c>
       <c r="L6" t="n">
-        <v>408348.6846783727</v>
+        <v>408661.3260072935</v>
       </c>
       <c r="M6" t="n">
-        <v>323293.6567428607</v>
+        <v>323606.2980717817</v>
       </c>
       <c r="N6" t="n">
-        <v>408348.6846783724</v>
+        <v>408661.3260072937</v>
       </c>
       <c r="O6" t="n">
-        <v>408348.6846783723</v>
+        <v>408661.3260072938</v>
       </c>
       <c r="P6" t="n">
-        <v>408348.6846783725</v>
+        <v>408661.3260072935</v>
       </c>
     </row>
   </sheetData>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,13 +26983,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>107.6452257955342</v>
       </c>
       <c r="F2" t="n">
-        <v>145.9730667037135</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,19 +27593,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629279</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.46631197041933</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>274.9183408758537</v>
+        <v>274.9183408758542</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27776,22 +27776,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>142.6361678014306</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27833,16 +27833,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>137.1238099094095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>71.00037073623412</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>15.66137961936136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351647</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>94.15744254776814</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31606,7 +31606,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>146.0225991093089</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>349.3304751113899</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>8.181160134949948</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>211.4890361370309</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
